--- a/ストーリーボード.xlsx
+++ b/ストーリーボード.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="10755" windowHeight="4695"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="10755" windowHeight="4695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BurnDownChart" sheetId="7" r:id="rId1"/>
@@ -17,428 +17,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Aska</author>
-  </authors>
-  <commentList>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>viva:5pts　作ったことないから。
-Konata:2pts　ラフ版はあるから。
-Aska:　同上。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>viva:5pts　日記の仕様はある程度固まっていると思うから。
-konata:2pts　超ざっくり最小限ってことで。あとのはあとで。
-Aska:5pts　ヒアリングの時間がかかる（リードタイム長そう）。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Viva:3pts　データの送信のみだと考えたから。
-Konata:21pts　DB設計込だから。
-Aska:8pts　日記データの設計が終わっていないから。でも、やることはINSERT文を作るだけだから。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Viva:2pts　メソッドの微修正で済むと考えたから。
-Konata:3pts　キー値の変更が見込まれるから。
-Aska:3pts　設計の見直しが入ると思うから。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">viva:8pts　カレンダーの実装をしたことがない。調査工数++
-konata:5pts　基準になりそうな機能だから。
-aska:3pts　コンポーネントを利用するだけのはずだから。その他の機能（特に登録と家計簿）が難しそうだから。
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>viva:2pts　GUIだけで済むから。
-konata:5pts　設計見直しが入るから。
-Aska:2pts　GUIだけで済むから。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>viva:21pts　DB設計、画面設計が多いから。
-konata:5pts　設計を決めつけての実装だと思うから。
-Aska:8pts　登録ではないから。データ構造だけ決まればどうにかなるから。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>viva:8pts　インプットが精査済だから、DB構造もすぐ決定するはず。
-konata:8pts　閲覧機能に十分時間をかけているから。
-Aska:3pts　閲覧機能でDB設計が終わっているはずだから。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>viva:5pts　条件分岐が多そう。
-konata:3pts　日記にあわせた。
-Aska:5pts　内部処理の組み合わせが多そう。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>viva:2pts　テストが大変。
-konata:1pts　設計済前提。
-Aska:2pts　削除様式が決定していない。（物理）　テストケースが面倒。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>viva:3pts　実装は簡単。削除のテストケースが読めていないから。
-konata:2pts　ほぼテストだけ。
-Aska:2pts　同上。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>viva:8pts　なんとなく。
-konata:8pts　DB設計5pts　移行ツール（ほぼテスト）3pts。
-Aska:13pts　テスト（妥当性の確認）がやばい。元のデータが複式ではないため、新規にトランザクションデータを作成する必要があるかもしれない。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>viva:8pts　テストケース増えそう。画面面倒そう。
-konata:5pts　画面だけだろうし、適当。
-Aska:8pts　vivaとだいたい同じ理由。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>viva:5pts　複式簿記自体が未知数。
-Konata:3pts　#0017でほとんど終わる。
-Aska:5pts　画面構造が複雑そうだから。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>viva:3pts　閲覧・登録できてるなら、テストケース作成のみ。修正のやり方は学んでいるはず。
-konata:5pts　テストケースを登録からこっちへ寄せているから。
-Aska:3pts　学習の度合い的に余裕。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -1263,6 +843,37 @@
     <rPh sb="14" eb="16">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>check point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面上の日付の日記情報が画面で閲覧出来ること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面起動時に、起動日付の日記情報が画面へ表示されること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBを作成する。(SQL文作成）</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>viva</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>aska/konata/viva</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1274,7 +885,7 @@
     <numFmt numFmtId="176" formatCode="&quot;#&quot;000#"/>
     <numFmt numFmtId="177" formatCode="&quot;#&quot;0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,21 +916,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1597,28 +1193,28 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1717,7 +1313,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>112</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>93</c:v>
@@ -1831,7 +1427,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>112</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>112</c:v>
@@ -1874,25 +1470,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98034048"/>
-        <c:axId val="98035584"/>
+        <c:axId val="184116352"/>
+        <c:axId val="184117888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98034048"/>
+        <c:axId val="184116352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="&quot;#&quot;0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98035584"/>
+        <c:crossAx val="184117888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98035584"/>
+        <c:axId val="184117888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,20 +1496,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98034048"/>
+        <c:crossAx val="184116352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2241,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2295,24 +1890,24 @@
         <v>41349</v>
       </c>
       <c r="D2" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A2,Story!E$2:E$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A2,Story!F$2:F$49)</f>
         <v>0</v>
       </c>
       <c r="E2" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A2,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A2,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F2" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A2,Story!G$2:G$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A2,Story!H$2:H$49)</f>
         <v>0</v>
       </c>
       <c r="G2" s="30">
-        <f>Story!$E$1-D2</f>
-        <v>112</v>
+        <f>Story!$F$1-D2</f>
+        <v>114</v>
       </c>
       <c r="H2" s="30">
-        <f>Story!$E$1-BurnDownChart!F2</f>
-        <v>112</v>
+        <f>Story!$F$1-BurnDownChart!F2</f>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2328,23 +1923,23 @@
         <v>41349</v>
       </c>
       <c r="D3" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A3,Story!E$2:E$49)</f>
-        <v>19</v>
+        <f>SUMIF(Story!$B$2:$B$49,$A3,Story!F$2:F$49)</f>
+        <v>21</v>
       </c>
       <c r="E3" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A3,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A3,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F3" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A3,Story!G$2:G$49)</f>
-        <v>0</v>
+        <f>SUMIF(Story!$B$2:$B$49,$A3,Story!H$2:H$49)</f>
+        <v>2</v>
       </c>
       <c r="G3" s="30">
-        <f>Story!$E$1-D3</f>
+        <f>Story!$F$1-D3</f>
         <v>93</v>
       </c>
       <c r="H3" s="30">
-        <f>Story!$E$1-BurnDownChart!F3</f>
+        <f>Story!$F$1-BurnDownChart!F3</f>
         <v>112</v>
       </c>
     </row>
@@ -2362,15 +1957,15 @@
         <v>41363</v>
       </c>
       <c r="D4" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A4,Story!E$2:E$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A4,Story!F$2:F$49)</f>
         <v>0</v>
       </c>
       <c r="E4" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A4,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A4,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F4" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A4,Story!G$2:G$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A4,Story!H$2:H$49)</f>
         <v>0</v>
       </c>
       <c r="G4" s="30">
@@ -2396,15 +1991,15 @@
         <v>41377</v>
       </c>
       <c r="D5" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A5,Story!E$2:E$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A5,Story!F$2:F$49)</f>
         <v>0</v>
       </c>
       <c r="E5" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A5,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A5,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F5" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A5,Story!G$2:G$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A5,Story!H$2:H$49)</f>
         <v>0</v>
       </c>
       <c r="G5" s="30">
@@ -2430,15 +2025,15 @@
         <v>41391</v>
       </c>
       <c r="D6" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A6,Story!E$2:E$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A6,Story!F$2:F$49)</f>
         <v>0</v>
       </c>
       <c r="E6" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A6,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A6,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F6" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A6,Story!G$2:G$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A6,Story!H$2:H$49)</f>
         <v>0</v>
       </c>
       <c r="G6" s="30">
@@ -2464,15 +2059,15 @@
         <v>41405</v>
       </c>
       <c r="D7" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A7,Story!E$2:E$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A7,Story!F$2:F$49)</f>
         <v>0</v>
       </c>
       <c r="E7" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A7,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A7,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F7" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A7,Story!G$2:G$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A7,Story!H$2:H$49)</f>
         <v>0</v>
       </c>
       <c r="G7" s="30">
@@ -2498,15 +2093,15 @@
         <v>41419</v>
       </c>
       <c r="D8" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A8,Story!E$2:E$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A8,Story!F$2:F$49)</f>
         <v>0</v>
       </c>
       <c r="E8" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A8,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A8,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F8" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A8,Story!G$2:G$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A8,Story!H$2:H$49)</f>
         <v>0</v>
       </c>
       <c r="G8" s="30">
@@ -2532,15 +2127,15 @@
         <v>41433</v>
       </c>
       <c r="D9" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A9,Story!E$2:E$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A9,Story!F$2:F$49)</f>
         <v>0</v>
       </c>
       <c r="E9" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A9,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A9,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F9" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A9,Story!G$2:G$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A9,Story!H$2:H$49)</f>
         <v>0</v>
       </c>
       <c r="G9" s="30">
@@ -2566,15 +2161,15 @@
         <v>41447</v>
       </c>
       <c r="D10" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A10,Story!E$2:E$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A10,Story!F$2:F$49)</f>
         <v>0</v>
       </c>
       <c r="E10" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A10,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A10,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F10" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A10,Story!G$2:G$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A10,Story!H$2:H$49)</f>
         <v>0</v>
       </c>
       <c r="G10" s="30">
@@ -2600,15 +2195,15 @@
         <v>41461</v>
       </c>
       <c r="D11" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A11,Story!E$2:E$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A11,Story!F$2:F$49)</f>
         <v>0</v>
       </c>
       <c r="E11" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A11,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A11,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F11" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A11,Story!G$2:G$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A11,Story!H$2:H$49)</f>
         <v>0</v>
       </c>
       <c r="G11" s="30">
@@ -2634,15 +2229,15 @@
         <v>41475</v>
       </c>
       <c r="D12" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A12,Story!E$2:E$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A12,Story!F$2:F$49)</f>
         <v>0</v>
       </c>
       <c r="E12" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A12,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A12,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F12" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A12,Story!G$2:G$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A12,Story!H$2:H$49)</f>
         <v>0</v>
       </c>
       <c r="G12" s="30">
@@ -2668,15 +2263,15 @@
         <v>41489</v>
       </c>
       <c r="D13" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A13,Story!E$2:E$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A13,Story!F$2:F$49)</f>
         <v>0</v>
       </c>
       <c r="E13" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A13,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A13,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F13" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A13,Story!G$2:G$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A13,Story!H$2:H$49)</f>
         <v>0</v>
       </c>
       <c r="G13" s="30">
@@ -2702,15 +2297,15 @@
         <v>41503</v>
       </c>
       <c r="D14" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A14,Story!E$2:E$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A14,Story!F$2:F$49)</f>
         <v>0</v>
       </c>
       <c r="E14" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A14,Story!F$2:F$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A14,Story!G$2:G$49)</f>
         <v>0</v>
       </c>
       <c r="F14" s="30">
-        <f>SUMIF(Story!$B$2:$B$49,$A14,Story!G$2:G$49)</f>
+        <f>SUMIF(Story!$B$2:$B$49,$A14,Story!H$2:H$49)</f>
         <v>0</v>
       </c>
       <c r="G14" s="30">
@@ -2731,11 +2326,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2743,28 +2338,28 @@
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="4" max="5" width="51.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="E1">
-        <f>SUM(E3:E49)</f>
-        <v>112</v>
-      </c>
-      <c r="F1" s="1">
+    <row r="1" spans="1:11">
+      <c r="F1">
         <f>SUM(F3:F49)</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1">
         <f>SUM(G3:G49)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="H1" s="1">
+        <f>SUM(H3:H49)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -2777,20 +2372,23 @@
       <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="20">
         <f t="shared" ref="A3:A49" si="0">ROW()-2</f>
         <v>1</v>
@@ -2804,16 +2402,19 @@
       <c r="D3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="22">
-        <v>0</v>
-      </c>
-      <c r="F3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2827,16 +2428,19 @@
       <c r="D4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="22">
         <v>1</v>
       </c>
-      <c r="F4" s="21"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="40.5">
+    <row r="5" spans="1:11" ht="40.5">
       <c r="A5" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2850,16 +2454,19 @@
       <c r="D5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="22">
         <v>13</v>
       </c>
-      <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2873,16 +2480,19 @@
       <c r="D6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="22">
         <v>3</v>
       </c>
-      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2896,424 +2506,464 @@
       <c r="D7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="22">
         <v>2</v>
       </c>
-      <c r="F7" s="21"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="H7" s="21">
+        <v>2</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24">
+        <v>26</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="20">
         <f>ROW()-2</f>
-        <v>6</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="24">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="22">
-        <v>3</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="20">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="22">
         <v>3</v>
       </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="24">
+        <v>2</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="22">
-        <v>13</v>
-      </c>
-      <c r="F10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
       <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="22">
-        <v>2</v>
-      </c>
-      <c r="F11" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22">
+        <v>13</v>
+      </c>
       <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="22">
-        <v>3</v>
-      </c>
-      <c r="F12" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22">
+        <v>2</v>
+      </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="24">
+        <v>5</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21"/>
+      <c r="F13" s="22">
         <v>3</v>
       </c>
-      <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="24">
+        <v>6</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21"/>
+      <c r="F14" s="22">
         <v>3</v>
       </c>
-      <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22">
+        <v>3</v>
+      </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="22">
-        <v>8</v>
-      </c>
-      <c r="F16" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
       <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="27">
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="22">
-        <v>5</v>
-      </c>
-      <c r="F17" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22">
+        <v>8</v>
+      </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="27">
       <c r="A18" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="22">
+        <v>45</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22">
         <v>5</v>
       </c>
-      <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="22">
-        <v>2</v>
-      </c>
-      <c r="F19" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22">
+        <v>5</v>
+      </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="22">
+        <v>54</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22">
         <v>2</v>
       </c>
-      <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" ht="27">
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="22">
+        <v>57</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22">
         <v>2</v>
       </c>
-      <c r="F21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="27">
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" ht="27">
       <c r="A22" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="22">
-        <v>13</v>
-      </c>
-      <c r="F22" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22">
+        <v>2</v>
+      </c>
       <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="27">
       <c r="A23" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="22">
-        <v>8</v>
-      </c>
-      <c r="F23" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22">
+        <v>13</v>
+      </c>
       <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:10" ht="27">
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="20">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="24">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="22">
-        <v>3</v>
-      </c>
-      <c r="F24" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22">
+        <v>8</v>
+      </c>
       <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" ht="27">
       <c r="A25" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="22">
-        <v>8</v>
-      </c>
-      <c r="F25" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22">
+        <v>3</v>
+      </c>
       <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="20">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="24">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="22">
-        <v>5</v>
-      </c>
-      <c r="F26" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22">
+        <v>8</v>
+      </c>
       <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="24">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="22">
-        <v>3</v>
-      </c>
-      <c r="F27" s="21"/>
+        <v>59</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22">
+        <v>5</v>
+      </c>
       <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="20">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="24">
-        <v>26</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22">
+        <v>3</v>
+      </c>
       <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="20">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3323,12 +2973,13 @@
         <v>27</v>
       </c>
       <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="20">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3338,12 +2989,13 @@
         <v>28</v>
       </c>
       <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="20">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3353,12 +3005,13 @@
         <v>29</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="20">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3368,12 +3021,13 @@
         <v>30</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="20">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3383,12 +3037,13 @@
         <v>31</v>
       </c>
       <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="20">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3398,12 +3053,13 @@
         <v>32</v>
       </c>
       <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="20">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3413,12 +3069,13 @@
         <v>33</v>
       </c>
       <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="20">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3428,12 +3085,13 @@
         <v>34</v>
       </c>
       <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="20">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3443,12 +3101,13 @@
         <v>35</v>
       </c>
       <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="20">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3458,12 +3117,13 @@
         <v>36</v>
       </c>
       <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="20">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3473,12 +3133,13 @@
         <v>37</v>
       </c>
       <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="20">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3488,12 +3149,13 @@
         <v>38</v>
       </c>
       <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="20">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3503,12 +3165,13 @@
         <v>39</v>
       </c>
       <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="21"/>
-      <c r="H41" s="22"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41" s="21"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="20">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3518,12 +3181,13 @@
         <v>40</v>
       </c>
       <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="20">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3533,12 +3197,13 @@
         <v>41</v>
       </c>
       <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="20">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3548,12 +3213,13 @@
         <v>42</v>
       </c>
       <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="22"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="20">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3563,12 +3229,13 @@
         <v>43</v>
       </c>
       <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="22"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="H45" s="21"/>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="20">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3578,12 +3245,13 @@
         <v>44</v>
       </c>
       <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
       <c r="G46" s="21"/>
-      <c r="H46" s="22"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3593,12 +3261,13 @@
         <v>45</v>
       </c>
       <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="22"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="H47" s="21"/>
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="20">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3608,12 +3277,13 @@
         <v>46</v>
       </c>
       <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
       <c r="G48" s="21"/>
-      <c r="H48" s="22"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="H48" s="21"/>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="20">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3623,16 +3293,16 @@
         <v>47</v>
       </c>
       <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
       <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
